--- a/data/trans_orig/P14A16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A16-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C41E81F-17D1-438F-9ECF-9874B80C6902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E57F82B-D4D2-4081-AF1B-2E0F472B0226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2B68662-F72D-4DB7-99D4-8AE5BB159075}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{237A7F8C-9D75-460F-A99C-93EFD800F808}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="223">
   <si>
     <t>Población que recibe medicación o terapia por alergias crónicas en 2012 (Tasa respuesta: 6,22%)</t>
   </si>
@@ -84,16 +84,16 @@
     <t>76,78%</t>
   </si>
   <si>
-    <t>32,37%</t>
+    <t>42,13%</t>
   </si>
   <si>
     <t>72,49%</t>
   </si>
   <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,16 +105,16 @@
     <t>23,22%</t>
   </si>
   <si>
-    <t>67,63%</t>
+    <t>57,87%</t>
   </si>
   <si>
     <t>27,51%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -126,55 +126,55 @@
     <t>51,17%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
   <si>
     <t>76,93%</t>
   </si>
   <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
   </si>
   <si>
     <t>48,83%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
   </si>
   <si>
     <t>23,07%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -183,55 +183,55 @@
     <t>71,44%</t>
   </si>
   <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
   </si>
   <si>
     <t>73,39%</t>
   </si>
   <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
   </si>
   <si>
     <t>72,56%</t>
   </si>
   <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
   </si>
   <si>
     <t>28,56%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
   </si>
   <si>
     <t>26,61%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -240,55 +240,55 @@
     <t>78,52%</t>
   </si>
   <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -297,79 +297,79 @@
     <t>80,17%</t>
   </si>
   <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>77,12%</t>
   </si>
   <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>19,83%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
   </si>
   <si>
     <t>72,32%</t>
   </si>
   <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
   </si>
   <si>
     <t>77,6%</t>
   </si>
   <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>75,47%</t>
   </si>
   <si>
-    <t>70,97%</t>
+    <t>71,29%</t>
   </si>
   <si>
     <t>79,49%</t>
@@ -378,19 +378,19 @@
     <t>27,68%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
   </si>
   <si>
     <t>24,53%</t>
@@ -399,7 +399,7 @@
     <t>20,51%</t>
   </si>
   <si>
-    <t>29,03%</t>
+    <t>28,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -420,10 +420,10 @@
     <t>63,08%</t>
   </si>
   <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>46,85%</t>
@@ -438,268 +438,274 @@
     <t>36,92%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
   </si>
   <si>
     <t>84,39%</t>
   </si>
   <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>84,18%</t>
   </si>
   <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>84,27%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
   </si>
   <si>
     <t>15,82%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>15,73%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
   </si>
   <si>
     <t>59,53%</t>
   </si>
   <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>68,34%</t>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
   </si>
   <si>
     <t>40,47%</t>
   </si>
   <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>31,66%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>76,69%</t>
   </si>
   <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
   </si>
   <si>
     <t>23,31%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
   </si>
   <si>
     <t>68,58%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
   </si>
   <si>
     <t>65,51%</t>
   </si>
   <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
   </si>
   <si>
     <t>31,42%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
   </si>
   <si>
     <t>34,49%</t>
   </si>
   <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AF4DCC-EBCD-4832-BEB3-AA1EA11A05BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F58142A-04C5-4414-8854-A4BF46C52D71}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2174,7 +2180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CDB0BA-C289-4F99-BE64-621132B36330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB367A58-F58B-46C3-863B-B23A8689EF5F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2629,7 +2635,7 @@
         <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -2638,13 +2644,13 @@
         <v>102872</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2665,13 @@
         <v>18657</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -2674,13 +2680,13 @@
         <v>21750</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -2689,13 +2695,13 @@
         <v>40406</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2769,13 @@
         <v>23478</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -2778,13 +2784,13 @@
         <v>48866</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -2793,13 +2799,13 @@
         <v>72343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2820,13 @@
         <v>3184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -2829,13 +2835,13 @@
         <v>14849</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -2844,13 +2850,13 @@
         <v>18033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2924,13 @@
         <v>44798</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -2936,10 +2942,10 @@
         <v>126</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -2948,13 +2954,13 @@
         <v>96826</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2975,13 @@
         <v>20524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -2987,10 +2993,10 @@
         <v>132</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -2999,13 +3005,13 @@
         <v>50975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3079,13 @@
         <v>119888</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>195</v>
@@ -3088,13 +3094,13 @@
         <v>207572</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>309</v>
@@ -3103,13 +3109,13 @@
         <v>327460</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3130,13 @@
         <v>47581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>71</v>
@@ -3139,13 +3145,13 @@
         <v>73999</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>117</v>
@@ -3154,13 +3160,13 @@
         <v>121580</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A16-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E57F82B-D4D2-4081-AF1B-2E0F472B0226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E181AA16-1542-41EF-9378-8FE89D3BB321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{237A7F8C-9D75-460F-A99C-93EFD800F808}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCE5BFAE-0BA4-4F1B-BBFE-E3B8F5E0376B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
   <si>
     <t>Población que recibe medicación o terapia por alergias crónicas en 2012 (Tasa respuesta: 6,22%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -84,16 +84,16 @@
     <t>76,78%</t>
   </si>
   <si>
-    <t>42,13%</t>
+    <t>42,65%</t>
   </si>
   <si>
     <t>72,49%</t>
   </si>
   <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,190 +105,190 @@
     <t>23,22%</t>
   </si>
   <si>
-    <t>57,87%</t>
+    <t>57,35%</t>
   </si>
   <si>
     <t>27,51%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>51,17%</t>
   </si>
   <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
   </si>
   <si>
     <t>76,93%</t>
   </si>
   <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
   </si>
   <si>
     <t>48,83%</t>
   </si>
   <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
   </si>
   <si>
     <t>23,07%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>71,44%</t>
   </si>
   <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>73,39%</t>
   </si>
   <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
   </si>
   <si>
     <t>72,56%</t>
   </si>
   <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>28,56%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
   </si>
   <si>
     <t>26,61%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>78,52%</t>
   </si>
   <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -297,415 +297,403 @@
     <t>80,17%</t>
   </si>
   <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>67,34%</t>
   </si>
   <si>
     <t>77,12%</t>
   </si>
   <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>19,83%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
+    <t>32,66%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
   </si>
   <si>
     <t>72,32%</t>
   </si>
   <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por alergias crónicas en 2016 (Tasa respuesta: 6,49%)</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>34,21%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por alergias crónicas en 2015 (Tasa respuesta: 6,49%)</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
     <t>15,82%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
   </si>
   <si>
     <t>15,73%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
   </si>
   <si>
     <t>59,53%</t>
   </si>
   <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
   </si>
   <si>
     <t>40,47%</t>
   </si>
   <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>76,69%</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>23,31%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
   </si>
   <si>
     <t>68,58%</t>
   </si>
   <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
   </si>
   <si>
     <t>65,51%</t>
   </si>
   <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
   </si>
   <si>
     <t>31,42%</t>
   </si>
   <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>34,49%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F58142A-04C5-4414-8854-A4BF46C52D71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FE6EF5-5667-4A20-A0BC-1D63DC1A483D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1867,7 +1855,7 @@
         <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -1876,13 +1864,13 @@
         <v>64580</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -1891,13 +1879,13 @@
         <v>102768</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1900,13 @@
         <v>9444</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -1927,13 +1915,13 @@
         <v>19163</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -1942,13 +1930,13 @@
         <v>28607</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2004,13 @@
         <v>127120</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>186</v>
@@ -2031,13 +2019,13 @@
         <v>200403</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>304</v>
@@ -2046,13 +2034,13 @@
         <v>327523</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,13 +2055,13 @@
         <v>48651</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -2082,13 +2070,13 @@
         <v>57833</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
@@ -2097,13 +2085,13 @@
         <v>106484</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,7 +2147,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB367A58-F58B-46C3-863B-B23A8689EF5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99C14C3-D133-4201-8A09-D5D7580B60EA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2197,7 +2185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2304,7 +2292,7 @@
         <v>1070</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -2319,10 +2307,10 @@
         <v>3505</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2334,13 +2322,13 @@
         <v>4575</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,7 +2343,7 @@
         <v>943</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -2370,13 +2358,13 @@
         <v>1734</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2385,13 +2373,13 @@
         <v>2677</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2447,13 @@
         <v>23101</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -2474,13 +2462,13 @@
         <v>27743</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -2489,13 +2477,13 @@
         <v>50845</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2498,13 @@
         <v>4273</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -2525,13 +2513,13 @@
         <v>5216</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -2540,13 +2528,13 @@
         <v>9488</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2602,13 @@
         <v>27441</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -2629,13 +2617,13 @@
         <v>75430</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -2644,13 +2632,13 @@
         <v>102872</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2653,13 @@
         <v>18657</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -2680,13 +2668,13 @@
         <v>21750</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -2695,13 +2683,13 @@
         <v>40406</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2757,13 @@
         <v>23478</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -2784,13 +2772,13 @@
         <v>48866</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -2799,13 +2787,13 @@
         <v>72343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2808,13 @@
         <v>3184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -2835,13 +2823,13 @@
         <v>14849</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -2850,13 +2838,13 @@
         <v>18033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2912,13 @@
         <v>44798</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -2939,13 +2927,13 @@
         <v>52028</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -2954,13 +2942,13 @@
         <v>96826</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2963,13 @@
         <v>20524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -2990,13 +2978,13 @@
         <v>30451</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -3005,13 +2993,13 @@
         <v>50975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3067,13 @@
         <v>119888</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>195</v>
@@ -3094,13 +3082,13 @@
         <v>207572</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>309</v>
@@ -3109,13 +3097,13 @@
         <v>327460</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3118,13 @@
         <v>47581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>71</v>
@@ -3145,13 +3133,13 @@
         <v>73999</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>117</v>
@@ -3160,13 +3148,13 @@
         <v>121580</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,7 +3210,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
